--- a/Kortright_BC_1.xlsx
+++ b/Kortright_BC_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC3C0E-3365-4D40-B37D-EDCAD5CCE322}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246600E8-B67C-4916-9D57-BE359D96DA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -989,7 +992,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
